--- a/biology/Zoologie/Cavia_magna/Cavia_magna.xlsx
+++ b/biology/Zoologie/Cavia_magna/Cavia_magna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grand cobaye
-Le Grand cobaye (Cavia magna) est une espèce de Rongeurs de la famille des Cavidés[2],[3]. On le rencontre sur la côte atlantique de l'Amérique du Sud, au Brésil et en Uruguay.
-L'espèce a été décrite pour la première fois en 1980 par le zoologiste brésilien Alfredo Ximenez[4].
+Le Grand cobaye (Cavia magna) est une espèce de Rongeurs de la famille des Cavidés,. On le rencontre sur la côte atlantique de l'Amérique du Sud, au Brésil et en Uruguay.
+L'espèce a été décrite pour la première fois en 1980 par le zoologiste brésilien Alfredo Ximenez.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Grand Cobaye est originaire de la terre côtière de l’est Uruguay, et sud Brésil. Ses habitat naturel est prairies mouillé, marais, le bord des bois, et vallons[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Grand Cobaye est originaire de la terre côtière de l’est Uruguay, et sud Brésil. Ses habitat naturel est prairies mouillé, marais, le bord des bois, et vallons.
 </t>
         </is>
       </c>
@@ -570,7 +586,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ximinez : Notas sobre el genero Cavia Pallas con la descripcion de Cavia magna sp. n. (Mammalia-Caviidae). Revista Nordestina de Biologia, 3 Numero especial pp 145-179.</t>
         </is>
